--- a/xlsx/Business Insider_intext.xlsx
+++ b/xlsx/Business Insider_intext.xlsx
@@ -29,7 +29,7 @@
     <t>月刊</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Business Insider</t>
+    <t>政策_政策_维基百科_Business Insider</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB</t>
